--- a/Tecniche avanzate Data Analysis con Excel/Grafici_Pratica1.xlsx
+++ b/Tecniche avanzate Data Analysis con Excel/Grafici_Pratica1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3e9e98bf3c419bd/Desktop/Corsi/Data Analyst/2-Tecniche Avanzate  di Analisi Dati Excel/Excel_Database/excel/1. I Grafici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1FD6D8B-B88A-4459-BBB7-16C0E51444F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{B1FD6D8B-B88A-4459-BBB7-16C0E51444F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A633835-6EAA-401C-BC13-209118FB5AE0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="739" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="739" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IntroduzioneGrafici" sheetId="6" r:id="rId1"/>
@@ -18,26 +18,39 @@
     <sheet name="GraficiSpecifici1" sheetId="7" r:id="rId3"/>
     <sheet name="GraficiSpecifici1.1" sheetId="13" r:id="rId4"/>
     <sheet name="GraficiSpecifici2" sheetId="8" r:id="rId5"/>
-    <sheet name="GraficiSpecifici3" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId7"/>
-    <sheet name="FocusGraficiFreq" sheetId="5" r:id="rId8"/>
-    <sheet name="5NumSintesi" sheetId="3" r:id="rId9"/>
-    <sheet name="BoxPlot" sheetId="4" r:id="rId10"/>
+    <sheet name="GraficiSpecifici2.1" sheetId="14" r:id="rId6"/>
+    <sheet name="GraficiSpecifici3" sheetId="9" r:id="rId7"/>
+    <sheet name="Grafico_Forecast3.1" sheetId="11" r:id="rId8"/>
+    <sheet name="FocusGraficiFreq" sheetId="5" r:id="rId9"/>
+    <sheet name="5NumSintesi" sheetId="3" r:id="rId10"/>
+    <sheet name="BoxPlot" sheetId="4" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'5NumSintesi'!$A$4:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'5NumSintesi'!$A$4:$B$28</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">BoxPlot!$A$25</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">BoxPlot!$A$26:$A$49</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">BoxPlot!$B$25</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">BoxPlot!$B$26:$B$49</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">GraficiSpecifici2!$A$6:$A$12</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">GraficiSpecifici2!$B$6:$B$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">BoxPlot!$A$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">BoxPlot!$A$26:$A$49</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">BoxPlot!$B$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">BoxPlot!$B$26:$B$49</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">GraficiSpecifici2.1!$A$6:$A$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">GraficiSpecifici2.1!$B$6:$B$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
     <definedName name="_xlchart.v5.0" hidden="1">GraficiSpecifici2!$A$6:$A$12</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">GraficiSpecifici2!$B$6:$B$12</definedName>
+    <definedName name="_xlchart.v5.10" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
+    <definedName name="_xlchart.v5.11" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">GraficiSpecifici2.1!$A$6:$A$12</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">GraficiSpecifici2.1!$B$6:$B$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -901,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
   <si>
     <t>Mediana</t>
   </si>
@@ -7710,7 +7723,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
+              <c:f>Grafico_Forecast3.1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7733,7 +7746,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$B$70</c:f>
+              <c:f>Grafico_Forecast3.1!$B$2:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="69"/>
@@ -7917,7 +7930,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$C$1</c:f>
+              <c:f>Grafico_Forecast3.1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7940,7 +7953,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$70</c:f>
+              <c:f>Grafico_Forecast3.1!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -8156,7 +8169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$C$2:$C$70</c:f>
+              <c:f>Grafico_Forecast3.1!$C$2:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -8220,7 +8233,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$1</c:f>
+              <c:f>Grafico_Forecast3.1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8244,7 +8257,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$70</c:f>
+              <c:f>Grafico_Forecast3.1!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -8460,7 +8473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$70</c:f>
+              <c:f>Grafico_Forecast3.1!$D$2:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -8524,7 +8537,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$E$1</c:f>
+              <c:f>Grafico_Forecast3.1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8548,7 +8561,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$70</c:f>
+              <c:f>Grafico_Forecast3.1!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -8764,7 +8777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$2:$E$70</c:f>
+              <c:f>Grafico_Forecast3.1!$E$2:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -9957,13 +9970,186 @@
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Conteggio dipendenti 2022</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Conteggio dipendenti 2022</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{C2ED0126-2F46-43D8-ADEC-59A8B5B0C3D6}">
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v5.10</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v5.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Conteggio dipendenti 2022</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Conteggio dipendenti 2022</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{C2ED0126-2F46-43D8-ADEC-59A8B5B0C3D6}">
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals>
+              <cx:idx val="7"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:fmtOvrs>
+    <cx:fmtOvr idx="0">
+      <cx:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+    <cx:fmtOvr idx="1">
+      <cx:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+  </cx:fmtOvrs>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10001,7 +10187,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{97B34290-5B0F-4314-A68C-B439D6423554}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Squadra A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10037,7 +10223,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A4476070-D906-4E72-A41F-03FB281401FE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>SquadraB</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10327,6 +10513,86 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11190,6 +11456,1022 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11705,7 +12987,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12208,7 +13490,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12711,7 +13993,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13214,7 +14496,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13717,7 +14999,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18322,6 +19604,565 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69E9D04-DB1B-F2B3-F8D1-42E66D232536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4975860" y="1447800"/>
+          <a:ext cx="617220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DD8186-14F0-46CF-8D62-1C8E07A68652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="5273040"/>
+          <a:ext cx="617220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>221196</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37D2077-CD50-BF4E-0F40-F5096DBF0734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1059180"/>
+          <a:ext cx="2491956" cy="464860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8480D671-86C4-4688-957E-71A3078CC252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008620" y="6720840"/>
+          <a:ext cx="617220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>301171</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>121993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2469505D-C106-BF10-8510-274468BA1039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8633460" y="19476720"/>
+          <a:ext cx="1874682" cy="853514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FDF23E-CECE-31B0-9F01-92AE3791AF36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3729318" y="4231341"/>
+          <a:ext cx="0" cy="331694"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B95390-C05B-404C-AAC1-A23E20050DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3720353" y="2070848"/>
+          <a:ext cx="0" cy="331694"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586498</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35170</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A89385-0115-8297-26BC-421225F643BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3640360" y="1992233"/>
+          <a:ext cx="152056" cy="182398"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>592014</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52753</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Oval 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02C83C0-3B33-4835-9D5D-52944E34A25A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3645876" y="4583723"/>
+          <a:ext cx="164123" cy="199293"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8792</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8792</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="Chart 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4836D263-2423-9884-12E5-7923591E662E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8552717" y="8054486"/>
+              <a:ext cx="4657725" cy="2875085"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19129,6 +20970,167 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Grafico 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B979AA11-D429-4C71-6127-8196CCD683C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2595562" y="1247775"/>
+              <a:ext cx="6681788" cy="3600450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Grafico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652C78AA-9191-44C5-90E4-7B8018A8AF28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2590800" y="5600699"/>
+              <a:ext cx="6686550" cy="4105275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -19176,7 +21178,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19217,7 +21219,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19459,565 +21461,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69E9D04-DB1B-F2B3-F8D1-42E66D232536}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4975860" y="1447800"/>
-          <a:ext cx="617220" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DD8186-14F0-46CF-8D62-1C8E07A68652}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991100" y="5273040"/>
-          <a:ext cx="617220" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>221196</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>40</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37D2077-CD50-BF4E-0F40-F5096DBF0734}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1059180"/>
-          <a:ext cx="2491956" cy="464860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8480D671-86C4-4688-957E-71A3078CC252}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8008620" y="6720840"/>
-          <a:ext cx="617220" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>301171</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>121993</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2469505D-C106-BF10-8510-274468BA1039}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8633460" y="19476720"/>
-          <a:ext cx="1874682" cy="853514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FDF23E-CECE-31B0-9F01-92AE3791AF36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3729318" y="4231341"/>
-          <a:ext cx="0" cy="331694"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B95390-C05B-404C-AAC1-A23E20050DD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3720353" y="2070848"/>
-          <a:ext cx="0" cy="331694"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>586498</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>110679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>35170</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Oval 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A89385-0115-8297-26BC-421225F643BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3640360" y="1992233"/>
-          <a:ext cx="152056" cy="182398"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>592014</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>52753</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175847</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Oval 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02C83C0-3B33-4835-9D5D-52944E34A25A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3645876" y="4583723"/>
-          <a:ext cx="164123" cy="199293"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>8792</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>5861</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>8792</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>23446</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="18" name="Chart 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4836D263-2423-9884-12E5-7923591E662E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8552717" y="8054486"/>
-              <a:ext cx="4657725" cy="2875085"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="it-IT" sz="1100"/>
-                <a:t>Il grafico non è disponibile in questa versione di Excel.
-Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21356,6 +22799,376 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA90BE52-A7EC-4948-A06F-402C21654314}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>162</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="4">
+        <f>_xlfn.QUARTILE.INC(A5:A28,0)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>163</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="4">
+        <f>_xlfn.QUARTILE.EXC($A$5:$A$28,1)</f>
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>165</v>
+      </c>
+      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="4">
+        <f>_xlfn.QUARTILE.EXC($A$5:$A$28,2)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>166</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="4">
+        <f>_xlfn.QUARTILE.EXC($A$5:$A$28,3)</f>
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>167</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="4">
+        <f>_xlfn.QUARTILE.INC($A$5:$A$28,4)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>172</v>
+      </c>
+      <c r="B11">
+        <v>168</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>172</v>
+      </c>
+      <c r="B12">
+        <v>170</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="4">
+        <f>_xlfn.QUARTILE.INC($B$5:$B$28,0)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>173</v>
+      </c>
+      <c r="B13">
+        <v>173</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="4">
+        <f>_xlfn.QUARTILE.EXC($B$5:$B$28,1)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>173</v>
+      </c>
+      <c r="B14">
+        <v>173</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="4">
+        <f>_xlfn.QUARTILE.EXC($B$5:$B$28,2)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>173</v>
+      </c>
+      <c r="B15">
+        <v>174</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="4">
+        <f>_xlfn.QUARTILE.EXC($B$5:$B$28,3)</f>
+        <v>180.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>175</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="4">
+        <f>_xlfn.QUARTILE.INC($B$5:$B$28,4)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>175</v>
+      </c>
+      <c r="B19">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>175</v>
+      </c>
+      <c r="B20">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>177</v>
+      </c>
+      <c r="B22">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>179</v>
+      </c>
+      <c r="B23">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>180</v>
+      </c>
+      <c r="B24">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>185</v>
+      </c>
+      <c r="B25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>186</v>
+      </c>
+      <c r="B26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>187</v>
+      </c>
+      <c r="B27">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>188</v>
+      </c>
+      <c r="B28">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I32:I55">
+    <sortCondition ref="I32:I55"/>
+  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C9448B-4C76-45B6-BC69-9DECC6DBA1BB}">
   <dimension ref="A1:T110"/>
   <sheetViews>
@@ -24958,7 +26771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7A02C3-C2D6-4DD6-8898-F2E9F2258584}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
@@ -25269,11 +27082,152 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE096FA-5BC1-4663-A64C-27AEF4FE9C06}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="3" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B6:B11)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D25:N25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDEDB76-A0E3-4DB6-B41F-A42F2B7ADA81}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25757,7 +27711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D69C8-7D25-4302-9D63-D076D760C11D}">
   <dimension ref="A1:E70"/>
   <sheetViews>
@@ -26485,11 +28439,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927C0F96-9845-4A07-84C3-21DB98CD9910}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -26926,374 +28880,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA90BE52-A7EC-4948-A06F-402C21654314}">
-  <dimension ref="A1:N28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>163</v>
-      </c>
-      <c r="B5">
-        <v>162</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="4">
-        <f>_xlfn.QUARTILE.INC(A5:A28,0)</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>164</v>
-      </c>
-      <c r="B6">
-        <v>163</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="4">
-        <f>_xlfn.QUARTILE.EXC($A$5:$A$28,1)</f>
-        <v>170.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>165</v>
-      </c>
-      <c r="B7">
-        <v>165</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="4">
-        <f>_xlfn.QUARTILE.EXC($A$5:$A$28,2)</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>168</v>
-      </c>
-      <c r="B8">
-        <v>166</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="4">
-        <f>_xlfn.QUARTILE.EXC($A$5:$A$28,3)</f>
-        <v>178.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>169</v>
-      </c>
-      <c r="B9">
-        <v>167</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="4">
-        <f>_xlfn.QUARTILE.INC($A$5:$A$28,4)</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>170</v>
-      </c>
-      <c r="B10">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>172</v>
-      </c>
-      <c r="B11">
-        <v>168</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>172</v>
-      </c>
-      <c r="B12">
-        <v>170</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="4">
-        <f>_xlfn.QUARTILE.INC($B$5:$B$28,0)</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>173</v>
-      </c>
-      <c r="B13">
-        <v>173</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="4">
-        <f>_xlfn.QUARTILE.EXC($B$5:$B$28,1)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>173</v>
-      </c>
-      <c r="B14">
-        <v>173</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="4">
-        <f>_xlfn.QUARTILE.EXC($B$5:$B$28,2)</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>173</v>
-      </c>
-      <c r="B15">
-        <v>174</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="4">
-        <f>_xlfn.QUARTILE.EXC($B$5:$B$28,3)</f>
-        <v>180.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>175</v>
-      </c>
-      <c r="B16">
-        <v>175</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="4">
-        <f>_xlfn.QUARTILE.INC($B$5:$B$28,4)</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>175</v>
-      </c>
-      <c r="B17">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>175</v>
-      </c>
-      <c r="B18">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>175</v>
-      </c>
-      <c r="B19">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>175</v>
-      </c>
-      <c r="B20">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>176</v>
-      </c>
-      <c r="B21">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>177</v>
-      </c>
-      <c r="B22">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>179</v>
-      </c>
-      <c r="B23">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>180</v>
-      </c>
-      <c r="B24">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>185</v>
-      </c>
-      <c r="B25">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>186</v>
-      </c>
-      <c r="B26">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>187</v>
-      </c>
-      <c r="B27">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>188</v>
-      </c>
-      <c r="B28">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I32:I55">
-    <sortCondition ref="I32:I55"/>
-  </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tecniche avanzate Data Analysis con Excel/Grafici_Pratica1.xlsx
+++ b/Tecniche avanzate Data Analysis con Excel/Grafici_Pratica1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3e9e98bf3c419bd/Desktop/Corsi/Data Analyst/2-Tecniche Avanzate  di Analisi Dati Excel/Excel_Database/excel/1. I Grafici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B1FD6D8B-B88A-4459-BBB7-16C0E51444F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A633835-6EAA-401C-BC13-209118FB5AE0}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{B1FD6D8B-B88A-4459-BBB7-16C0E51444F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C7B76C-B2CA-4E85-ACF5-803FD043E40A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="739" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="739" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IntroduzioneGrafici" sheetId="6" r:id="rId1"/>
@@ -24,33 +24,31 @@
     <sheet name="FocusGraficiFreq" sheetId="5" r:id="rId9"/>
     <sheet name="5NumSintesi" sheetId="3" r:id="rId10"/>
     <sheet name="BoxPlot" sheetId="4" r:id="rId11"/>
+    <sheet name="Esercizio1_Frequenza_Istogramma" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'5NumSintesi'!$A$4:$B$28</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">BoxPlot!$A$25</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">BoxPlot!$A$26:$A$49</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">BoxPlot!$B$25</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">BoxPlot!$B$26:$B$49</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">BoxPlot!$B$25</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">BoxPlot!$B$26:$B$49</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Esercizio1_Frequenza_Istogramma!$F$4:$F$13</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Esercizio1_Frequenza_Istogramma!$G$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Esercizio1_Frequenza_Istogramma!$G$4:$G$13</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Esercizio1_Frequenza_Istogramma!$G$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Esercizio1_Frequenza_Istogramma!$G$4:$G$13</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">GraficiSpecifici2!$A$6:$A$12</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">GraficiSpecifici2!$B$6:$B$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">GraficiSpecifici2.1!$A$6:$A$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">GraficiSpecifici2.1!$B$6:$B$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">BoxPlot!$A$25</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">BoxPlot!$A$26:$A$49</definedName>
     <definedName name="_xlchart.v5.0" hidden="1">GraficiSpecifici2!$A$6:$A$12</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">GraficiSpecifici2!$B$6:$B$12</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">GraficiSpecifici2.1!$A$6:$A$12</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">GraficiSpecifici2.1!$B$6:$B$12</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">GraficiSpecifici2.1!$A$5:$A$12</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">GraficiSpecifici2.1!$B$5:$B$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +70,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -914,7 +912,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t>Mediana</t>
   </si>
@@ -1266,6 +1264,60 @@
   <si>
     <t>Source: https://www.wallstreetmojo.com/combination-charts-in-excel/</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ID Soggetto</t>
+  </si>
+  <si>
+    <t>Stipendi annuali azienda ABC</t>
+  </si>
+  <si>
+    <t>Classe di stipendio</t>
+  </si>
+  <si>
+    <t>35.000 € - 37.000 €</t>
+  </si>
+  <si>
+    <t>37.000 € - 39.000 €</t>
+  </si>
+  <si>
+    <t>39.000 € - 41.000 €</t>
+  </si>
+  <si>
+    <t>41.000 € - 43.000 €</t>
+  </si>
+  <si>
+    <t>43.000 € - 45.000 €</t>
+  </si>
+  <si>
+    <t>45.000 € - 47.000 €</t>
+  </si>
+  <si>
+    <t>47.000 € - 49.000 €</t>
+  </si>
+  <si>
+    <t>49.000 € - 51.000 €</t>
+  </si>
+  <si>
+    <t>51.000 € - 53.000 €</t>
+  </si>
+  <si>
+    <t>53.000 € - 55.000 €</t>
+  </si>
+  <si>
+    <t>Limite Superiore</t>
+  </si>
+  <si>
+    <t>Frequenza assoluta</t>
+  </si>
+  <si>
+    <t>Frequenza relativa</t>
+  </si>
+  <si>
+    <t>Frequenza percentuale</t>
+  </si>
 </sst>
 </file>
 
@@ -1277,7 +1329,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,6 +1371,28 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1546,10 +1620,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1681,9 +1756,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -9971,10 +10061,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10039,10 +10129,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.10</cx:f>
+        <cx:f>_xlchart.v5.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v5.11</cx:f>
+        <cx:f>_xlchart.v5.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10144,12 +10234,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10187,7 +10277,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{97B34290-5B0F-4314-A68C-B439D6423554}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Squadra A</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10223,7 +10313,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A4476070-D906-4E72-A41F-03FB281401FE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>SquadraB</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10268,6 +10358,90 @@
       </cx:axis>
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:strDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Frequenza stipendi ABC</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Frequenza stipendi ABC</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{CBAEE668-0C3B-4D26-B824-40ABF4301D94}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>Frequenza assoluta</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{00000001-E945-4A1C-8576-1A7B99D02B9E}" formatIdx="1">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -10632,6 +10806,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15509,6 +15723,561 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="368">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -20136,6 +20905,89 @@
             <a:xfrm>
               <a:off x="8552717" y="8054486"/>
               <a:ext cx="4657725" cy="2875085"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Grafico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DD140E-A1E1-F07E-5BF7-34F3566E29E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4095749" y="2667000"/>
+              <a:ext cx="6686551" cy="2962275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21182,16 +22034,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>291465</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22803,7 +23655,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24327,11 +25179,399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8098F5-7ABB-44CB-944F-D8CDB6FB40F9}">
+  <dimension ref="A3:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="67">
+        <v>1</v>
+      </c>
+      <c r="B4" s="68">
+        <v>42563</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="70">
+        <v>37000</v>
+      </c>
+      <c r="G4" s="69">
+        <f t="array" ref="G4:G13">FREQUENCY(B4:B24,F4:F13)</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="71">
+        <f>G4/COUNTA($B$4:$B$24)</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="I4" s="72">
+        <f>H4</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="67">
+        <v>2</v>
+      </c>
+      <c r="B5" s="68">
+        <v>48000</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="70">
+        <v>39000</v>
+      </c>
+      <c r="G5" s="69">
+        <v>1</v>
+      </c>
+      <c r="H5" s="71">
+        <f t="shared" ref="H5:H13" si="0">G5/COUNTA($B$4:$B$24)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="I5" s="72">
+        <f t="shared" ref="I5:I13" si="1">H5</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="67">
+        <v>3</v>
+      </c>
+      <c r="B6" s="68">
+        <v>35485</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="70">
+        <v>41000</v>
+      </c>
+      <c r="G6" s="69">
+        <v>0</v>
+      </c>
+      <c r="H6" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
+        <v>4</v>
+      </c>
+      <c r="B7" s="68">
+        <v>53203.75</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="70">
+        <v>43000</v>
+      </c>
+      <c r="G7" s="69">
+        <v>2</v>
+      </c>
+      <c r="H7" s="71">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="I7" s="72">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="67">
+        <v>5</v>
+      </c>
+      <c r="B8" s="68">
+        <v>44356</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="70">
+        <v>45000</v>
+      </c>
+      <c r="G8" s="69">
+        <v>5</v>
+      </c>
+      <c r="H8" s="71">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="I8" s="72">
+        <f t="shared" si="1"/>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>6</v>
+      </c>
+      <c r="B9" s="68">
+        <v>35685</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="70">
+        <v>47000</v>
+      </c>
+      <c r="G9" s="69">
+        <v>0</v>
+      </c>
+      <c r="H9" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
+        <v>7</v>
+      </c>
+      <c r="B10" s="68">
+        <v>51009</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="70">
+        <v>49000</v>
+      </c>
+      <c r="G10" s="69">
+        <v>1</v>
+      </c>
+      <c r="H10" s="71">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="I10" s="72">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="67">
+        <v>8</v>
+      </c>
+      <c r="B11" s="68">
+        <v>42848</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="70">
+        <v>51000</v>
+      </c>
+      <c r="G11" s="69">
+        <v>2</v>
+      </c>
+      <c r="H11" s="71">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="I11" s="72">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="67">
+        <v>9</v>
+      </c>
+      <c r="B12" s="68">
+        <v>37194</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="70">
+        <v>53000</v>
+      </c>
+      <c r="G12" s="69">
+        <v>4</v>
+      </c>
+      <c r="H12" s="71">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="I12" s="72">
+        <f t="shared" si="1"/>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="67">
+        <v>10</v>
+      </c>
+      <c r="B13" s="68">
+        <v>36194</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="70">
+        <v>55000</v>
+      </c>
+      <c r="G13" s="69">
+        <v>1</v>
+      </c>
+      <c r="H13" s="71">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="I13" s="72">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
+        <v>11</v>
+      </c>
+      <c r="B14" s="68">
+        <v>51009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="67">
+        <v>12</v>
+      </c>
+      <c r="B15" s="68">
+        <v>43148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="67">
+        <v>13</v>
+      </c>
+      <c r="B16" s="68">
+        <v>35841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="67">
+        <v>14</v>
+      </c>
+      <c r="B17" s="68">
+        <v>50509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="67">
+        <v>15</v>
+      </c>
+      <c r="B18" s="68">
+        <v>51203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="67">
+        <v>16</v>
+      </c>
+      <c r="B19" s="68">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="67">
+        <v>17</v>
+      </c>
+      <c r="B20" s="68">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="67">
+        <v>18</v>
+      </c>
+      <c r="B21" s="68">
+        <v>35941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="67">
+        <v>19</v>
+      </c>
+      <c r="B22" s="68">
+        <v>50609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="67">
+        <v>20</v>
+      </c>
+      <c r="B23" s="68">
+        <v>51303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="67">
+        <v>21</v>
+      </c>
+      <c r="B24" s="68">
+        <v>43458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC7362B-F68D-42B9-B724-0F6476F025AB}">
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="N157" sqref="N157"/>
     </sheetView>
   </sheetViews>
@@ -26597,7 +27837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD32F6-7CFA-4E84-89A2-804AFC13DC01}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37:K37"/>
     </sheetView>
   </sheetViews>
@@ -26771,7 +28011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7A02C3-C2D6-4DD6-8898-F2E9F2258584}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
@@ -27085,7 +28325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE096FA-5BC1-4663-A64C-27AEF4FE9C06}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -27715,7 +28955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D69C8-7D25-4302-9D63-D076D760C11D}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28441,10 +29683,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927C0F96-9845-4A07-84C3-21DB98CD9910}">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28769,35 +30011,38 @@
       <c r="G16" s="14"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G17" s="14"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G18" s="14"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G19" s="14"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G20" s="14"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G21" s="14"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G22" s="14"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G23" s="14"/>
       <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="7:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="48" t="s">
         <v>22</v>
       </c>
@@ -28808,35 +30053,35 @@
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
     </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G25" s="14"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G26" s="14"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G27" s="14"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G28" s="14"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G29" s="14"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G30" s="14"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G31" s="14"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G32" s="14"/>
       <c r="M32" s="13"/>
     </row>
